--- a/data_excel/162.xlsx
+++ b/data_excel/162.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>婷婷</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,7 +514,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -682,7 +686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -690,15 +694,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/data_excel/162.xlsx
+++ b/data_excel/162.xlsx
@@ -87,9 +87,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>48</t>
   </si>
   <si>
@@ -141,6 +138,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +515,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -527,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -536,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -547,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -556,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -567,7 +568,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -576,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -587,7 +588,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -596,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -607,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -616,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -633,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -661,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -683,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -698,22 +699,22 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -724,12 +725,12 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>

--- a/data_excel/162.xlsx
+++ b/data_excel/162.xlsx
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>時間點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,6 +138,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -665,15 +665,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>31</v>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -700,10 +700,10 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
